--- a/docs/TODO-Cloud-S5.xlsx
+++ b/docs/TODO-Cloud-S5.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="251">
   <si>
     <t>ETU003113</t>
   </si>
@@ -729,6 +729,15 @@
   </si>
   <si>
     <t>definition prix par m_2 et calcule automatique du budget</t>
+  </si>
+  <si>
+    <t>POSTMAN</t>
+  </si>
+  <si>
+    <t>Configuration et creation des API postman</t>
+  </si>
+  <si>
+    <t>Donnée de test postman</t>
   </si>
   <si>
     <t>SUM de Estimation</t>
@@ -2468,7 +2477,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:K144" displayName="Tableau1" name="Tableau1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="B1:K146" displayName="Tableau1" name="Tableau1" id="1">
   <tableColumns count="10">
     <tableColumn name="Catégorie" id="1"/>
     <tableColumn name="Module" id="2"/>
@@ -2829,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="14">
-        <f t="shared" ref="J2:J144" si="2">(H2/(H2+I2))</f>
+        <f t="shared" ref="J2:J146" si="2">(H2/(H2+I2))</f>
         <v>1</v>
       </c>
       <c r="K2" s="15"/>
@@ -3973,7 +3982,7 @@
         <v>5</v>
       </c>
       <c r="I34" s="21">
-        <f t="shared" ref="I34:I144" si="3">G34-H34</f>
+        <f t="shared" ref="I34:I146" si="3">G34-H34</f>
         <v>0</v>
       </c>
       <c r="J34" s="14">
@@ -7991,8 +8000,78 @@
       </c>
       <c r="K144" s="63"/>
     </row>
-    <row r="145" ht="30.0" customHeight="1"/>
-    <row r="146" ht="30.0" customHeight="1"/>
+    <row r="145" ht="30.0" customHeight="1">
+      <c r="A145" s="6">
+        <v>147.0</v>
+      </c>
+      <c r="B145" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" s="143" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" s="144" t="s">
+        <v>238</v>
+      </c>
+      <c r="E145" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F145" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G145" s="142">
+        <v>30.0</v>
+      </c>
+      <c r="H145" s="12">
+        <f>Detail_avancement!B145</f>
+        <v>0</v>
+      </c>
+      <c r="I145" s="21">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="J145" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K145" s="63"/>
+    </row>
+    <row r="146" ht="30.0" customHeight="1">
+      <c r="A146" s="6">
+        <v>148.0</v>
+      </c>
+      <c r="B146" s="138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C146" s="143" t="s">
+        <v>237</v>
+      </c>
+      <c r="D146" s="144" t="s">
+        <v>239</v>
+      </c>
+      <c r="E146" s="125" t="s">
+        <v>60</v>
+      </c>
+      <c r="F146" s="141" t="s">
+        <v>6</v>
+      </c>
+      <c r="G146" s="142">
+        <v>10.0</v>
+      </c>
+      <c r="H146" s="12">
+        <f>Detail_avancement!B146</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="21">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="J146" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K146" s="63"/>
+    </row>
     <row r="147" ht="30.0" customHeight="1"/>
     <row r="148" ht="30.0" customHeight="1"/>
     <row r="149" ht="30.0" customHeight="1"/>
@@ -8004,19 +8083,19 @@
     <row r="155" ht="30.0" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E144">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E146">
       <formula1>"Infrastructure,Analyse,Tests,Backend,Documentation,Développement,Optimisation,Maintenance,Logique Métier,Sécurité,Test,Frontend,Database"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B144">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B146">
       <formula1>"API Auth,Module Cartes,Module Web,Module Mobile,Documentation,Tests,Module Web Backend"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G144">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:G146">
       <formula1>AND(ISNUMBER(G2),(NOT(OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C144">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C146">
       <formula1>"Setup,Inscription,Authentification,Sécurité,Modification,Documentation,Infrastructure,Backend,Test,Maintenance,Conception,Auth,Roles,Signalements,Managers,API,Performance,Profils,Carte Visiteur,Tableau Visiteur,Manager,Base de données,Module Mobile Setup,"&amp;"Module Mobile Auth,Module Mobile Carte,Module Mobile State &amp; Network,Module Mobile UI Navigation,Module Mobile Optimisation,Module Mobile Tests,Module Mobile Notifications,Module Mobile Photos,Module Mobile Firebase,Module Mobile Affichage,Deploiement"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F144">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F146">
       <formula1>"ETU003113,ETU003122,ETU003149,ETU003216"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8059,7 +8138,7 @@
       </c>
       <c r="B9" s="150">
         <f>Avancement!D2</f>
-        <v>1.106375358</v>
+        <v>1.090748588</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +8165,7 @@
         <v>Ligne</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C1" s="153">
         <v>46048.0</v>
@@ -8112,7 +8191,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="157">
-        <f t="shared" ref="B2:B144" si="1">SUM(C2:AA2)</f>
+        <f t="shared" ref="B2:B146" si="1">SUM(C2:AA2)</f>
         <v>15</v>
       </c>
       <c r="C2" s="158">
@@ -10633,10 +10712,34 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="145"/>
+      <c r="A145" s="157">
+        <v>147.0</v>
+      </c>
+      <c r="B145" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C145" s="157"/>
+      <c r="D145" s="157"/>
+      <c r="E145" s="157"/>
+      <c r="F145" s="157"/>
+      <c r="G145" s="157"/>
+      <c r="H145" s="157"/>
     </row>
     <row r="146">
-      <c r="A146" s="145"/>
+      <c r="A146" s="157">
+        <v>148.0</v>
+      </c>
+      <c r="B146" s="157">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C146" s="157"/>
+      <c r="D146" s="157"/>
+      <c r="E146" s="157"/>
+      <c r="F146" s="157"/>
+      <c r="G146" s="157"/>
+      <c r="H146" s="157"/>
     </row>
     <row r="147">
       <c r="A147" s="145"/>
@@ -13146,25 +13249,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="160" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B1" s="160" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C1" s="160" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D1" s="160" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E1" s="160" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="145">
         <f>SUM('Liste des tâches'!G:G)</f>
-        <v>2792</v>
+        <v>2832</v>
       </c>
       <c r="B2" s="145">
         <f>SUM('Liste des tâches'!H:H)</f>
@@ -13172,11 +13275,11 @@
       </c>
       <c r="C2" s="145">
         <f>SUM('Liste des tâches'!I:I)</f>
-        <v>-297</v>
+        <v>-257</v>
       </c>
       <c r="D2" s="161">
         <f>(B2/(B2+C2))</f>
-        <v>1.106375358</v>
+        <v>1.090748588</v>
       </c>
       <c r="E2" s="162">
         <f>((B2+C2)-A2)/A2</f>
@@ -13186,10 +13289,10 @@
     <row r="3">
       <c r="C3" s="163">
         <f>C2/60</f>
-        <v>-4.95</v>
+        <v>-4.283333333</v>
       </c>
       <c r="D3" s="164" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
